--- a/Code/Results/Cases/Case_4_249/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_249/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.86565153483471</v>
+        <v>13.28256698319107</v>
       </c>
       <c r="C2">
-        <v>6.93713102971061</v>
+        <v>7.939454770161528</v>
       </c>
       <c r="D2">
-        <v>9.556783556684964</v>
+        <v>13.88040491818303</v>
       </c>
       <c r="E2">
-        <v>8.84512688613256</v>
+        <v>14.4491880195096</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.39469204690627</v>
+        <v>40.43985250332256</v>
       </c>
       <c r="H2">
-        <v>10.49833019437104</v>
+        <v>17.36511617770097</v>
       </c>
       <c r="I2">
-        <v>17.17900640642853</v>
+        <v>27.67908473172471</v>
       </c>
       <c r="J2">
-        <v>5.014178320772185</v>
+        <v>8.654041313569321</v>
       </c>
       <c r="K2">
-        <v>11.40151051287936</v>
+        <v>10.2547189018129</v>
       </c>
       <c r="L2">
-        <v>7.608475446455102</v>
+        <v>12.069061777443</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.55706067066366</v>
+        <v>27.9541423893907</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.9366862253116</v>
+        <v>13.04316414706904</v>
       </c>
       <c r="C3">
-        <v>6.84133479807887</v>
+        <v>7.910122115429834</v>
       </c>
       <c r="D3">
-        <v>9.330862484431691</v>
+        <v>13.87501188872806</v>
       </c>
       <c r="E3">
-        <v>8.796692155870662</v>
+        <v>14.47265642006962</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>27.39679298800048</v>
+        <v>40.58080681898002</v>
       </c>
       <c r="H3">
-        <v>10.59212460621964</v>
+        <v>17.41926023040808</v>
       </c>
       <c r="I3">
-        <v>17.3803649661521</v>
+        <v>27.78383042537799</v>
       </c>
       <c r="J3">
-        <v>5.042841335684885</v>
+        <v>8.665545487992295</v>
       </c>
       <c r="K3">
-        <v>10.74743157293068</v>
+        <v>10.07909805346756</v>
       </c>
       <c r="L3">
-        <v>7.46286062343601</v>
+        <v>12.06822039055388</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.67147196940045</v>
+        <v>28.0499834655675</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.34756981713399</v>
+        <v>12.89567385034402</v>
       </c>
       <c r="C4">
-        <v>6.782093695136601</v>
+        <v>7.892038584171324</v>
       </c>
       <c r="D4">
-        <v>9.194527355084073</v>
+        <v>13.87416933915733</v>
       </c>
       <c r="E4">
-        <v>8.770943199211946</v>
+        <v>14.48901388403092</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>27.42409386113185</v>
+        <v>40.676891712589</v>
       </c>
       <c r="H4">
-        <v>10.65503580994391</v>
+        <v>17.45487594781716</v>
       </c>
       <c r="I4">
-        <v>17.5142368818852</v>
+        <v>27.85257317439932</v>
       </c>
       <c r="J4">
-        <v>5.061101592714945</v>
+        <v>8.67300260886172</v>
       </c>
       <c r="K4">
-        <v>10.3245934568658</v>
+        <v>9.970830624051793</v>
       </c>
       <c r="L4">
-        <v>7.37501388610496</v>
+        <v>12.06925179273881</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.75379108995758</v>
+        <v>28.11367870140365</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.11010904665004</v>
+        <v>12.83552135808816</v>
       </c>
       <c r="C5">
-        <v>6.757859502577782</v>
+        <v>7.884653308974393</v>
       </c>
       <c r="D5">
-        <v>9.139637265386597</v>
+        <v>13.87444871014071</v>
       </c>
       <c r="E5">
-        <v>8.761443727776376</v>
+        <v>14.49616988711887</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>27.44151289807174</v>
+        <v>40.71843982846661</v>
       </c>
       <c r="H5">
-        <v>10.68197508839761</v>
+        <v>17.46998633315476</v>
       </c>
       <c r="I5">
-        <v>17.57128665745977</v>
+        <v>27.8817004299226</v>
       </c>
       <c r="J5">
-        <v>5.068710980533787</v>
+        <v>8.676140683826816</v>
       </c>
       <c r="K5">
-        <v>10.14699780932048</v>
+        <v>9.926653758190835</v>
       </c>
       <c r="L5">
-        <v>7.33964544514442</v>
+        <v>12.07006266500565</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.79026404796689</v>
+        <v>28.14085366158757</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.0702479749476</v>
+        <v>12.82553236364953</v>
       </c>
       <c r="C6">
-        <v>6.753830208790951</v>
+        <v>7.883426084855828</v>
       </c>
       <c r="D6">
-        <v>9.130565137752612</v>
+        <v>13.87453276013251</v>
       </c>
       <c r="E6">
-        <v>8.759926031651979</v>
+        <v>14.49738775451335</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>27.44477814725798</v>
+        <v>40.72548320438981</v>
       </c>
       <c r="H6">
-        <v>10.68652599986763</v>
+        <v>17.47253145382525</v>
       </c>
       <c r="I6">
-        <v>17.58090828904935</v>
+        <v>27.88660428682187</v>
       </c>
       <c r="J6">
-        <v>5.069984727818133</v>
+        <v>8.676667760916967</v>
       </c>
       <c r="K6">
-        <v>10.1171908259247</v>
+        <v>9.919316332025932</v>
       </c>
       <c r="L6">
-        <v>7.33379958310575</v>
+        <v>12.07022093491788</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.79649407228157</v>
+        <v>28.14543962961628</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.34439628376043</v>
+        <v>12.89486271010005</v>
       </c>
       <c r="C7">
-        <v>6.781767223159293</v>
+        <v>7.891939045881108</v>
       </c>
       <c r="D7">
-        <v>9.1937842941915</v>
+        <v>13.87417058317963</v>
       </c>
       <c r="E7">
-        <v>8.770811077743121</v>
+        <v>14.4891084070457</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>27.42430362641841</v>
+        <v>40.67744236468079</v>
       </c>
       <c r="H7">
-        <v>10.65539389434263</v>
+        <v>17.45507731515005</v>
       </c>
       <c r="I7">
-        <v>17.51499626880711</v>
+        <v>27.85296148348509</v>
       </c>
       <c r="J7">
-        <v>5.061203532048158</v>
+        <v>8.673044527847102</v>
       </c>
       <c r="K7">
-        <v>10.32221965919522</v>
+        <v>9.970235000183303</v>
       </c>
       <c r="L7">
-        <v>7.374535105683797</v>
+        <v>12.0692611454109</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.75427126443167</v>
+        <v>28.11404025894228</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.55243650814003</v>
+        <v>13.20016877713917</v>
       </c>
       <c r="C8">
-        <v>6.904195772198102</v>
+        <v>7.929357443311456</v>
       </c>
       <c r="D8">
-        <v>9.478432866369761</v>
+        <v>13.87803424249683</v>
       </c>
       <c r="E8">
-        <v>8.827592876102131</v>
+        <v>14.45687592903939</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>27.3898707307255</v>
+        <v>40.48647046729285</v>
       </c>
       <c r="H8">
-        <v>10.52954406908977</v>
+        <v>17.38329321939847</v>
       </c>
       <c r="I8">
-        <v>17.24626136305</v>
+        <v>27.71428218900714</v>
       </c>
       <c r="J8">
-        <v>5.023925326167687</v>
+        <v>8.657926452038842</v>
       </c>
       <c r="K8">
-        <v>11.1804174160299</v>
+        <v>10.19428641922056</v>
       </c>
       <c r="L8">
-        <v>7.55796575425051</v>
+        <v>12.06845119175082</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.59393846485093</v>
+        <v>27.98618178099806</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.68229357491203</v>
+        <v>13.79169869474578</v>
       </c>
       <c r="C9">
-        <v>7.140382544482351</v>
+        <v>8.002053698064858</v>
       </c>
       <c r="D9">
-        <v>10.05255179966293</v>
+        <v>13.90510371824857</v>
       </c>
       <c r="E9">
-        <v>8.970984087517017</v>
+        <v>14.40910333820491</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.53949066593849</v>
+        <v>40.18790663368415</v>
       </c>
       <c r="H9">
-        <v>10.32667993861561</v>
+        <v>17.2613167835029</v>
       </c>
       <c r="I9">
-        <v>16.80430248516203</v>
+        <v>27.47744981517834</v>
       </c>
       <c r="J9">
-        <v>4.955975894034228</v>
+        <v>8.631389262297324</v>
       </c>
       <c r="K9">
-        <v>12.69333329613642</v>
+        <v>10.62794470391239</v>
       </c>
       <c r="L9">
-        <v>7.928436443521856</v>
+        <v>12.07908479349429</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.38032050044944</v>
+        <v>27.77394554412115</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.08536554702434</v>
+        <v>14.21774272729431</v>
       </c>
       <c r="C10">
-        <v>7.310848357676483</v>
+        <v>8.054914809681515</v>
       </c>
       <c r="D10">
-        <v>10.48025183389285</v>
+        <v>13.93672933227095</v>
       </c>
       <c r="E10">
-        <v>9.096310310199911</v>
+        <v>14.38338676928351</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.7959605742222</v>
+        <v>40.0151683522322</v>
       </c>
       <c r="H10">
-        <v>10.2069419846241</v>
+        <v>17.18312738332078</v>
       </c>
       <c r="I10">
-        <v>16.5371407884317</v>
+        <v>27.32482873929535</v>
       </c>
       <c r="J10">
-        <v>4.909061359225793</v>
+        <v>8.613769718918425</v>
       </c>
       <c r="K10">
-        <v>13.7000605577039</v>
+        <v>10.94016381175291</v>
       </c>
       <c r="L10">
-        <v>8.205066362590989</v>
+        <v>12.09426115010067</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.2919903012108</v>
+        <v>27.64151418788149</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.68918507015599</v>
+        <v>14.40887384808009</v>
       </c>
       <c r="C11">
-        <v>7.387602098975468</v>
+        <v>8.078814824334758</v>
       </c>
       <c r="D11">
-        <v>10.67536451939614</v>
+        <v>13.95362786745478</v>
       </c>
       <c r="E11">
-        <v>9.157733139023728</v>
+        <v>14.37371796755204</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.94729628080133</v>
+        <v>39.9467721325549</v>
       </c>
       <c r="H11">
-        <v>10.1594376417837</v>
+        <v>17.1500321458583</v>
       </c>
       <c r="I11">
-        <v>16.42948581943428</v>
+        <v>27.26003433946283</v>
       </c>
       <c r="J11">
-        <v>4.888341438542573</v>
+        <v>8.606157915565559</v>
       </c>
       <c r="K11">
-        <v>14.13524435178176</v>
+        <v>11.08023199165505</v>
       </c>
       <c r="L11">
-        <v>8.331456557310462</v>
+        <v>12.10274328413097</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.26832665999581</v>
+        <v>27.58637697122451</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.91293550424373</v>
+        <v>14.48080016194234</v>
       </c>
       <c r="C12">
-        <v>7.416542813803215</v>
+        <v>8.087841525053225</v>
       </c>
       <c r="D12">
-        <v>10.74927187454421</v>
+        <v>13.96038438144395</v>
       </c>
       <c r="E12">
-        <v>9.181630733820716</v>
+        <v>14.37034785032212</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>28.00980520294875</v>
+        <v>39.92234146001638</v>
       </c>
       <c r="H12">
-        <v>10.14250497013938</v>
+        <v>17.13785511640294</v>
       </c>
       <c r="I12">
-        <v>16.39084214719926</v>
+        <v>27.23616444530266</v>
       </c>
       <c r="J12">
-        <v>4.880582186844507</v>
+        <v>8.603333242114452</v>
       </c>
       <c r="K12">
-        <v>14.29676659680004</v>
+        <v>11.13294440824395</v>
       </c>
       <c r="L12">
-        <v>8.379363643495072</v>
+        <v>12.10618019457312</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.26187981249775</v>
+        <v>27.56623286811017</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.86496409128672</v>
+        <v>14.46533060579939</v>
       </c>
       <c r="C13">
-        <v>7.410315594733436</v>
+        <v>8.085898559993757</v>
       </c>
       <c r="D13">
-        <v>10.73335445208946</v>
+        <v>13.95891341345631</v>
       </c>
       <c r="E13">
-        <v>9.176455527782773</v>
+        <v>14.37106072274885</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>27.99610814239679</v>
+        <v>39.92753760810873</v>
       </c>
       <c r="H13">
-        <v>10.1461038415247</v>
+        <v>17.14046185441896</v>
       </c>
       <c r="I13">
-        <v>16.39906820800171</v>
+        <v>27.24127561786953</v>
       </c>
       <c r="J13">
-        <v>4.882249454694667</v>
+        <v>8.603939021684285</v>
       </c>
       <c r="K13">
-        <v>14.26212530860312</v>
+        <v>11.12160716162079</v>
       </c>
       <c r="L13">
-        <v>8.36904445796317</v>
+        <v>12.10543002550179</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.26315419534748</v>
+        <v>27.57053855100851</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.70769112303734</v>
+        <v>14.41480066969183</v>
       </c>
       <c r="C14">
-        <v>7.389985615457497</v>
+        <v>8.079557946728295</v>
       </c>
       <c r="D14">
-        <v>10.6814447785002</v>
+        <v>13.9541765898855</v>
       </c>
       <c r="E14">
-        <v>9.159686401243979</v>
+        <v>14.37343487277156</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>27.95233348878878</v>
+        <v>39.94473272735056</v>
       </c>
       <c r="H14">
-        <v>10.15802308741614</v>
+        <v>17.1490232127058</v>
       </c>
       <c r="I14">
-        <v>16.42626327193371</v>
+        <v>27.25805719426303</v>
       </c>
       <c r="J14">
-        <v>4.887701352519247</v>
+        <v>8.605924372036299</v>
       </c>
       <c r="K14">
-        <v>14.1485984251076</v>
+        <v>11.08457551134453</v>
       </c>
       <c r="L14">
-        <v>8.335397164415244</v>
+        <v>12.10302154549068</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.26774508087293</v>
+        <v>27.58470496508846</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.61071989440278</v>
+        <v>14.3837890147129</v>
       </c>
       <c r="C15">
-        <v>7.377516441759817</v>
+        <v>8.075670971838861</v>
       </c>
       <c r="D15">
-        <v>10.64964993200595</v>
+        <v>13.95132157520083</v>
       </c>
       <c r="E15">
-        <v>9.149498024952781</v>
+        <v>14.37492701750543</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>27.92620383310753</v>
+        <v>39.9554567525167</v>
       </c>
       <c r="H15">
-        <v>10.16546319927532</v>
+        <v>17.15431357003245</v>
       </c>
       <c r="I15">
-        <v>16.44320144035397</v>
+        <v>27.26842317243842</v>
       </c>
       <c r="J15">
-        <v>4.891052043354587</v>
+        <v>8.607147969716905</v>
       </c>
       <c r="K15">
-        <v>14.0786339809676</v>
+        <v>11.0618484610766</v>
       </c>
       <c r="L15">
-        <v>8.31479225450687</v>
+        <v>12.10157550882554</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.27088871552859</v>
+        <v>27.59347806806434</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.04521566893313</v>
+        <v>14.20519226212214</v>
       </c>
       <c r="C16">
-        <v>7.305815475317721</v>
+        <v>8.053349711177466</v>
       </c>
       <c r="D16">
-        <v>10.46750686420837</v>
+        <v>13.93567520120025</v>
       </c>
       <c r="E16">
-        <v>9.092385290927984</v>
+        <v>14.38405944002812</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.78678678360977</v>
+        <v>40.01984356751102</v>
       </c>
       <c r="H16">
-        <v>10.21019124859223</v>
+        <v>17.18533998507696</v>
       </c>
       <c r="I16">
-        <v>16.54446622291508</v>
+        <v>27.32915644842804</v>
       </c>
       <c r="J16">
-        <v>4.910427756756753</v>
+        <v>8.614275263693587</v>
       </c>
       <c r="K16">
-        <v>13.67116200429067</v>
+        <v>10.93096654239651</v>
       </c>
       <c r="L16">
-        <v>8.196814637207344</v>
+        <v>12.09373841030902</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.29388094298677</v>
+        <v>27.64522036380598</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.68951035650429</v>
+        <v>14.09489504132886</v>
       </c>
       <c r="C17">
-        <v>7.261618733598992</v>
+        <v>8.039616895126809</v>
       </c>
       <c r="D17">
-        <v>10.35586688363984</v>
+        <v>13.92671740882872</v>
       </c>
       <c r="E17">
-        <v>9.058481262982413</v>
+        <v>14.39018133209605</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.71029564704288</v>
+        <v>40.06195474603233</v>
       </c>
       <c r="H17">
-        <v>10.23945212716685</v>
+        <v>17.20500701704411</v>
       </c>
       <c r="I17">
-        <v>16.61023101722428</v>
+        <v>27.36760115029138</v>
       </c>
       <c r="J17">
-        <v>4.922471644859555</v>
+        <v>8.61875076676545</v>
       </c>
       <c r="K17">
-        <v>13.41535666458409</v>
+        <v>10.85013860365575</v>
       </c>
       <c r="L17">
-        <v>8.124555645122857</v>
+        <v>12.08933343395327</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.3123142041342</v>
+        <v>27.67827109320505</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.48167287808894</v>
+        <v>14.03120660294727</v>
       </c>
       <c r="C18">
-        <v>7.236123953885834</v>
+        <v>8.031704484770467</v>
       </c>
       <c r="D18">
-        <v>10.29170934903035</v>
+        <v>13.92180180187692</v>
       </c>
       <c r="E18">
-        <v>9.039395609971827</v>
+        <v>14.39389357796045</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.66955072692116</v>
+        <v>40.08713419454884</v>
       </c>
       <c r="H18">
-        <v>10.25693431259241</v>
+        <v>17.21655180787624</v>
       </c>
       <c r="I18">
-        <v>16.64935529018056</v>
+        <v>27.39014966799525</v>
       </c>
       <c r="J18">
-        <v>4.929457645633676</v>
+        <v>8.621362944478291</v>
       </c>
       <c r="K18">
-        <v>13.26607923313365</v>
+        <v>10.8034664744219</v>
       </c>
       <c r="L18">
-        <v>8.083047786001877</v>
+        <v>12.0869484991947</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.32446276265161</v>
+        <v>27.69776159340999</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.41074380210702</v>
+        <v>14.00960219061555</v>
       </c>
       <c r="C19">
-        <v>7.227479483894498</v>
+        <v>8.029023212220556</v>
       </c>
       <c r="D19">
-        <v>10.2699979372987</v>
+        <v>13.92017822211798</v>
       </c>
       <c r="E19">
-        <v>9.03300469222858</v>
+        <v>14.39518331980616</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.65630672320795</v>
+        <v>40.09582393481118</v>
       </c>
       <c r="H19">
-        <v>10.26296387258136</v>
+        <v>17.22050067356072</v>
       </c>
       <c r="I19">
-        <v>16.66282132287223</v>
+        <v>27.39785911638367</v>
       </c>
       <c r="J19">
-        <v>4.93183313654721</v>
+        <v>8.622253915164228</v>
       </c>
       <c r="K19">
-        <v>13.21516806018595</v>
+        <v>10.78763427570941</v>
       </c>
       <c r="L19">
-        <v>8.069004195113155</v>
+        <v>12.08616659953189</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.32883745490347</v>
+        <v>27.7044432580554</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.72771129877578</v>
+        <v>14.1066625640199</v>
       </c>
       <c r="C20">
-        <v>7.266331287205096</v>
+        <v>8.041080209250199</v>
       </c>
       <c r="D20">
-        <v>10.36774590234583</v>
+        <v>13.92764651232848</v>
       </c>
       <c r="E20">
-        <v>9.062047419002466</v>
+        <v>14.38950987298091</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.71810021116931</v>
+        <v>40.05737272943546</v>
       </c>
       <c r="H20">
-        <v>10.23626938221058</v>
+        <v>17.20288933242441</v>
       </c>
       <c r="I20">
-        <v>16.60309500207449</v>
+        <v>27.36346350703174</v>
       </c>
       <c r="J20">
-        <v>4.921183497358004</v>
+        <v>8.618270412226972</v>
       </c>
       <c r="K20">
-        <v>13.44280957046443</v>
+        <v>10.85876205826234</v>
       </c>
       <c r="L20">
-        <v>8.132242438818716</v>
+        <v>12.08978697669293</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.31019092908405</v>
+        <v>27.67470304058708</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.75401866393655</v>
+        <v>14.42965528018552</v>
       </c>
       <c r="C21">
-        <v>7.395960473600516</v>
+        <v>8.081421003043758</v>
       </c>
       <c r="D21">
-        <v>10.69669172494593</v>
+        <v>13.9555582417715</v>
       </c>
       <c r="E21">
-        <v>9.164594556189057</v>
+        <v>14.37272962831208</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.96504833885643</v>
+        <v>39.93964218310419</v>
       </c>
       <c r="H21">
-        <v>10.15449299813631</v>
+        <v>17.14649889038547</v>
       </c>
       <c r="I21">
-        <v>16.41821674551485</v>
+        <v>27.25310995393628</v>
       </c>
       <c r="J21">
-        <v>4.886097658882121</v>
+        <v>8.605339661214755</v>
       </c>
       <c r="K21">
-        <v>14.18203277512174</v>
+        <v>11.09546187331588</v>
       </c>
       <c r="L21">
-        <v>8.345279197883016</v>
+        <v>12.10372288743728</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.26632727196934</v>
+        <v>27.58052398696243</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.39621605571116</v>
+        <v>14.63809358040222</v>
       </c>
       <c r="C22">
-        <v>7.479952219442408</v>
+        <v>8.107646591240774</v>
       </c>
       <c r="D22">
-        <v>10.91178502947618</v>
+        <v>13.97588141723535</v>
       </c>
       <c r="E22">
-        <v>9.235335622551938</v>
+        <v>14.36346004964262</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.15685227804479</v>
+        <v>39.87126593062469</v>
       </c>
       <c r="H22">
-        <v>10.10723162340812</v>
+        <v>17.11171601052914</v>
       </c>
       <c r="I22">
-        <v>16.30982804973204</v>
+        <v>27.18487149065538</v>
       </c>
       <c r="J22">
-        <v>4.863672519485434</v>
+        <v>8.597225167874081</v>
       </c>
       <c r="K22">
-        <v>14.64608973536378</v>
+        <v>11.24822515854089</v>
       </c>
       <c r="L22">
-        <v>8.484764761522804</v>
+        <v>12.11414071857645</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.25238056267412</v>
+        <v>27.52325801700755</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.05605900152271</v>
+        <v>14.52710996462469</v>
       </c>
       <c r="C23">
-        <v>7.435194074746601</v>
+        <v>8.093663125877388</v>
       </c>
       <c r="D23">
-        <v>10.79699311765778</v>
+        <v>13.96484545908118</v>
       </c>
       <c r="E23">
-        <v>9.197238300669463</v>
+        <v>14.3682523215307</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.05163222190633</v>
+        <v>39.90697408794302</v>
       </c>
       <c r="H23">
-        <v>10.13187106773161</v>
+        <v>17.13009082923935</v>
       </c>
       <c r="I23">
-        <v>16.36649435398991</v>
+        <v>27.22093624568007</v>
       </c>
       <c r="J23">
-        <v>4.875595831673254</v>
+        <v>8.601525321007303</v>
       </c>
       <c r="K23">
-        <v>14.40015575080566</v>
+        <v>11.16688412222233</v>
       </c>
       <c r="L23">
-        <v>8.410305793705286</v>
+        <v>12.10846138027381</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.25843047547982</v>
+        <v>27.55342954116279</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.71045105292812</v>
+        <v>14.10134332507075</v>
       </c>
       <c r="C24">
-        <v>7.264201007185098</v>
+        <v>8.040418698415374</v>
       </c>
       <c r="D24">
-        <v>10.36237531333683</v>
+        <v>13.92722573439629</v>
       </c>
       <c r="E24">
-        <v>9.060433894860072</v>
+        <v>14.38981283940086</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.71456172089058</v>
+        <v>40.059441240625</v>
       </c>
       <c r="H24">
-        <v>10.23770625042663</v>
+        <v>17.20384599640828</v>
       </c>
       <c r="I24">
-        <v>16.60631710743305</v>
+        <v>27.36533274582524</v>
       </c>
       <c r="J24">
-        <v>4.921765676136211</v>
+        <v>8.618487458541804</v>
       </c>
       <c r="K24">
-        <v>13.43040500034793</v>
+        <v>10.85486402341288</v>
       </c>
       <c r="L24">
-        <v>8.128767128451466</v>
+        <v>12.08958147028397</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.31114604108536</v>
+        <v>27.67631463342031</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.13472764374295</v>
+        <v>13.63288399592555</v>
       </c>
       <c r="C25">
-        <v>7.076978028815606</v>
+        <v>7.982474060333971</v>
       </c>
       <c r="D25">
-        <v>9.895937415342075</v>
+        <v>13.8957076326131</v>
       </c>
       <c r="E25">
-        <v>8.928711994697675</v>
+        <v>14.42037730384554</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.47427310290031</v>
+        <v>40.26051226097213</v>
       </c>
       <c r="H25">
-        <v>10.37660716965496</v>
+        <v>17.2923059103961</v>
       </c>
       <c r="I25">
-        <v>16.91419992208094</v>
+        <v>27.53776279174367</v>
       </c>
       <c r="J25">
-        <v>4.973819849620163</v>
+        <v>8.638237290889466</v>
       </c>
       <c r="K25">
-        <v>12.30241190679394</v>
+        <v>10.5115467219701</v>
       </c>
       <c r="L25">
-        <v>7.827284703201055</v>
+        <v>12.07490815872328</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.42659463965844</v>
+        <v>27.82723672592185</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_249/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_249/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.28256698319107</v>
+        <v>13.86565153483471</v>
       </c>
       <c r="C2">
-        <v>7.939454770161528</v>
+        <v>6.937131029710593</v>
       </c>
       <c r="D2">
-        <v>13.88040491818303</v>
+        <v>9.556783556684849</v>
       </c>
       <c r="E2">
-        <v>14.4491880195096</v>
+        <v>8.845126886132563</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>40.43985250332256</v>
+        <v>27.39469204690635</v>
       </c>
       <c r="H2">
-        <v>17.36511617770097</v>
+        <v>10.49833019437104</v>
       </c>
       <c r="I2">
-        <v>27.67908473172471</v>
+        <v>17.17900640642859</v>
       </c>
       <c r="J2">
-        <v>8.654041313569321</v>
+        <v>5.01417832077235</v>
       </c>
       <c r="K2">
-        <v>10.2547189018129</v>
+        <v>11.40151051287931</v>
       </c>
       <c r="L2">
-        <v>12.069061777443</v>
+        <v>7.608475446455087</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.9541423893907</v>
+        <v>17.55706067066371</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.04316414706904</v>
+        <v>12.93668622531156</v>
       </c>
       <c r="C3">
-        <v>7.910122115429834</v>
+        <v>6.841334798078999</v>
       </c>
       <c r="D3">
-        <v>13.87501188872806</v>
+        <v>9.330862484431814</v>
       </c>
       <c r="E3">
-        <v>14.47265642006962</v>
+        <v>8.796692155870764</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>40.58080681898002</v>
+        <v>27.39679298800092</v>
       </c>
       <c r="H3">
-        <v>17.41926023040808</v>
+        <v>10.59212460621964</v>
       </c>
       <c r="I3">
-        <v>27.78383042537799</v>
+        <v>17.38036496615229</v>
       </c>
       <c r="J3">
-        <v>8.665545487992295</v>
+        <v>5.042841335684919</v>
       </c>
       <c r="K3">
-        <v>10.07909805346756</v>
+        <v>10.74743157293071</v>
       </c>
       <c r="L3">
-        <v>12.06822039055388</v>
+        <v>7.462860623436067</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.0499834655675</v>
+        <v>17.67147196940061</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.89567385034402</v>
+        <v>12.34756981713401</v>
       </c>
       <c r="C4">
-        <v>7.892038584171324</v>
+        <v>6.782093695136966</v>
       </c>
       <c r="D4">
-        <v>13.87416933915733</v>
+        <v>9.194527355084091</v>
       </c>
       <c r="E4">
-        <v>14.48901388403092</v>
+        <v>8.770943199211963</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>40.676891712589</v>
+        <v>27.42409386113201</v>
       </c>
       <c r="H4">
-        <v>17.45487594781716</v>
+        <v>10.65503580994404</v>
       </c>
       <c r="I4">
-        <v>27.85257317439932</v>
+        <v>17.51423688188543</v>
       </c>
       <c r="J4">
-        <v>8.67300260886172</v>
+        <v>5.061101592714913</v>
       </c>
       <c r="K4">
-        <v>9.970830624051793</v>
+        <v>10.32459345686578</v>
       </c>
       <c r="L4">
-        <v>12.06925179273881</v>
+        <v>7.37501388610485</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.11367870140365</v>
+        <v>17.75379108995772</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.83552135808816</v>
+        <v>12.11010904665004</v>
       </c>
       <c r="C5">
-        <v>7.884653308974393</v>
+        <v>6.757859502577755</v>
       </c>
       <c r="D5">
-        <v>13.87444871014071</v>
+        <v>9.139637265386668</v>
       </c>
       <c r="E5">
-        <v>14.49616988711887</v>
+        <v>8.761443727776385</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>40.71843982846661</v>
+        <v>27.44151289807185</v>
       </c>
       <c r="H5">
-        <v>17.46998633315476</v>
+        <v>10.68197508839768</v>
       </c>
       <c r="I5">
-        <v>27.8817004299226</v>
+        <v>17.5712866574599</v>
       </c>
       <c r="J5">
-        <v>8.676140683826816</v>
+        <v>5.068710980533788</v>
       </c>
       <c r="K5">
-        <v>9.926653758190835</v>
+        <v>10.14699780932049</v>
       </c>
       <c r="L5">
-        <v>12.07006266500565</v>
+        <v>7.339645445144415</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.14085366158757</v>
+        <v>17.79026404796702</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.82553236364953</v>
+        <v>12.07024797494759</v>
       </c>
       <c r="C6">
-        <v>7.883426084855828</v>
+        <v>6.753830208790945</v>
       </c>
       <c r="D6">
-        <v>13.87453276013251</v>
+        <v>9.130565137752576</v>
       </c>
       <c r="E6">
-        <v>14.49738775451335</v>
+        <v>8.759926031651922</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>40.72548320438981</v>
+        <v>27.44477814725817</v>
       </c>
       <c r="H6">
-        <v>17.47253145382525</v>
+        <v>10.68652599986758</v>
       </c>
       <c r="I6">
-        <v>27.88660428682187</v>
+        <v>17.58090828904938</v>
       </c>
       <c r="J6">
-        <v>8.676667760916967</v>
+        <v>5.069984727818098</v>
       </c>
       <c r="K6">
-        <v>9.919316332025932</v>
+        <v>10.11719082592469</v>
       </c>
       <c r="L6">
-        <v>12.07022093491788</v>
+        <v>7.333799583105724</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.14543962961628</v>
+        <v>17.79649407228164</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.89486271010005</v>
+        <v>12.34439628376043</v>
       </c>
       <c r="C7">
-        <v>7.891939045881108</v>
+        <v>6.781767223159273</v>
       </c>
       <c r="D7">
-        <v>13.87417058317963</v>
+        <v>9.193784294191405</v>
       </c>
       <c r="E7">
-        <v>14.4891084070457</v>
+        <v>8.770811077743076</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>40.67744236468079</v>
+        <v>27.4243036264185</v>
       </c>
       <c r="H7">
-        <v>17.45507731515005</v>
+        <v>10.65539389434258</v>
       </c>
       <c r="I7">
-        <v>27.85296148348509</v>
+        <v>17.51499626880699</v>
       </c>
       <c r="J7">
-        <v>8.673044527847102</v>
+        <v>5.061203532048061</v>
       </c>
       <c r="K7">
-        <v>9.970235000183303</v>
+        <v>10.32221965919525</v>
       </c>
       <c r="L7">
-        <v>12.0692611454109</v>
+        <v>7.374535105683745</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.11404025894228</v>
+        <v>17.7542712644316</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.20016877713917</v>
+        <v>13.55243650814003</v>
       </c>
       <c r="C8">
-        <v>7.929357443311456</v>
+        <v>6.904195772197848</v>
       </c>
       <c r="D8">
-        <v>13.87803424249683</v>
+        <v>9.47843286636977</v>
       </c>
       <c r="E8">
-        <v>14.45687592903939</v>
+        <v>8.827592876102136</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>40.48647046729285</v>
+        <v>27.38987073072534</v>
       </c>
       <c r="H8">
-        <v>17.38329321939847</v>
+        <v>10.52954406908984</v>
       </c>
       <c r="I8">
-        <v>27.71428218900714</v>
+        <v>17.24626136304996</v>
       </c>
       <c r="J8">
-        <v>8.657926452038842</v>
+        <v>5.023925326167656</v>
       </c>
       <c r="K8">
-        <v>10.19428641922056</v>
+        <v>11.18041741602986</v>
       </c>
       <c r="L8">
-        <v>12.06845119175082</v>
+        <v>7.557965754250528</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.98618178099806</v>
+        <v>17.59393846485095</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.79169869474578</v>
+        <v>15.68229357491207</v>
       </c>
       <c r="C9">
-        <v>8.002053698064858</v>
+        <v>7.140382544482103</v>
       </c>
       <c r="D9">
-        <v>13.90510371824857</v>
+        <v>10.0525517996628</v>
       </c>
       <c r="E9">
-        <v>14.40910333820491</v>
+        <v>8.970984087516918</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.18790663368415</v>
+        <v>27.53949066593873</v>
       </c>
       <c r="H9">
-        <v>17.2613167835029</v>
+        <v>10.32667993861567</v>
       </c>
       <c r="I9">
-        <v>27.47744981517834</v>
+        <v>16.80430248516211</v>
       </c>
       <c r="J9">
-        <v>8.631389262297324</v>
+        <v>4.955975894034228</v>
       </c>
       <c r="K9">
-        <v>10.62794470391239</v>
+        <v>12.69333329613639</v>
       </c>
       <c r="L9">
-        <v>12.07908479349429</v>
+        <v>7.928436443521855</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.77394554412115</v>
+        <v>17.38032050044959</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.21774272729431</v>
+        <v>17.08536554702432</v>
       </c>
       <c r="C10">
-        <v>8.054914809681515</v>
+        <v>7.31084835767669</v>
       </c>
       <c r="D10">
-        <v>13.93672933227095</v>
+        <v>10.48025183389286</v>
       </c>
       <c r="E10">
-        <v>14.38338676928351</v>
+        <v>9.0963103101999</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>40.0151683522322</v>
+        <v>27.79596057422221</v>
       </c>
       <c r="H10">
-        <v>17.18312738332078</v>
+        <v>10.20694198462415</v>
       </c>
       <c r="I10">
-        <v>27.32482873929535</v>
+        <v>16.53714078843182</v>
       </c>
       <c r="J10">
-        <v>8.613769718918425</v>
+        <v>4.909061359225824</v>
       </c>
       <c r="K10">
-        <v>10.94016381175291</v>
+        <v>13.70006055770388</v>
       </c>
       <c r="L10">
-        <v>12.09426115010067</v>
+        <v>8.205066362590978</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.64151418788149</v>
+        <v>17.29199030121084</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.40887384808009</v>
+        <v>17.68918507015599</v>
       </c>
       <c r="C11">
-        <v>8.078814824334758</v>
+        <v>7.387602098975457</v>
       </c>
       <c r="D11">
-        <v>13.95362786745478</v>
+        <v>10.67536451939614</v>
       </c>
       <c r="E11">
-        <v>14.37371796755204</v>
+        <v>9.157733139023733</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>39.9467721325549</v>
+        <v>27.94729628080131</v>
       </c>
       <c r="H11">
-        <v>17.1500321458583</v>
+        <v>10.15943764178366</v>
       </c>
       <c r="I11">
-        <v>27.26003433946283</v>
+        <v>16.42948581943421</v>
       </c>
       <c r="J11">
-        <v>8.606157915565559</v>
+        <v>4.888341438542543</v>
       </c>
       <c r="K11">
-        <v>11.08023199165505</v>
+        <v>14.13524435178176</v>
       </c>
       <c r="L11">
-        <v>12.10274328413097</v>
+        <v>8.331456557310467</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.58637697122451</v>
+        <v>17.26832665999575</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.48080016194234</v>
+        <v>17.91293550424379</v>
       </c>
       <c r="C12">
-        <v>8.087841525053225</v>
+        <v>7.416542813803203</v>
       </c>
       <c r="D12">
-        <v>13.96038438144395</v>
+        <v>10.74927187454415</v>
       </c>
       <c r="E12">
-        <v>14.37034785032212</v>
+        <v>9.181630733820667</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>39.92234146001638</v>
+        <v>28.00980520294873</v>
       </c>
       <c r="H12">
-        <v>17.13785511640294</v>
+        <v>10.14250497013922</v>
       </c>
       <c r="I12">
-        <v>27.23616444530266</v>
+        <v>16.39084214719914</v>
       </c>
       <c r="J12">
-        <v>8.603333242114452</v>
+        <v>4.880582186844505</v>
       </c>
       <c r="K12">
-        <v>11.13294440824395</v>
+        <v>14.29676659680008</v>
       </c>
       <c r="L12">
-        <v>12.10618019457312</v>
+        <v>8.379363643495028</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.56623286811017</v>
+        <v>17.26187981249765</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.46533060579939</v>
+        <v>17.86496409128669</v>
       </c>
       <c r="C13">
-        <v>8.085898559993757</v>
+        <v>7.410315594733658</v>
       </c>
       <c r="D13">
-        <v>13.95891341345631</v>
+        <v>10.73335445208944</v>
       </c>
       <c r="E13">
-        <v>14.37106072274885</v>
+        <v>9.176455527782828</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>39.92753760810873</v>
+        <v>27.99610814239666</v>
       </c>
       <c r="H13">
-        <v>17.14046185441896</v>
+        <v>10.14610384152475</v>
       </c>
       <c r="I13">
-        <v>27.24127561786953</v>
+        <v>16.39906820800181</v>
       </c>
       <c r="J13">
-        <v>8.603939021684285</v>
+        <v>4.882249454694765</v>
       </c>
       <c r="K13">
-        <v>11.12160716162079</v>
+        <v>14.26212530860313</v>
       </c>
       <c r="L13">
-        <v>12.10543002550179</v>
+        <v>8.369044457963147</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.57053855100851</v>
+        <v>17.26315419534744</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.41480066969183</v>
+        <v>17.70769112303736</v>
       </c>
       <c r="C14">
-        <v>8.079557946728295</v>
+        <v>7.389985615457481</v>
       </c>
       <c r="D14">
-        <v>13.9541765898855</v>
+        <v>10.68144477850037</v>
       </c>
       <c r="E14">
-        <v>14.37343487277156</v>
+        <v>9.159686401244036</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>39.94473272735056</v>
+        <v>27.95233348878884</v>
       </c>
       <c r="H14">
-        <v>17.1490232127058</v>
+        <v>10.1580230874162</v>
       </c>
       <c r="I14">
-        <v>27.25805719426303</v>
+        <v>16.42626327193373</v>
       </c>
       <c r="J14">
-        <v>8.605924372036299</v>
+        <v>4.887701352519148</v>
       </c>
       <c r="K14">
-        <v>11.08457551134453</v>
+        <v>14.14859842510759</v>
       </c>
       <c r="L14">
-        <v>12.10302154549068</v>
+        <v>8.335397164415312</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.58470496508846</v>
+        <v>17.267745080873</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.3837890147129</v>
+        <v>17.61071989440276</v>
       </c>
       <c r="C15">
-        <v>8.075670971838861</v>
+        <v>7.377516441759818</v>
       </c>
       <c r="D15">
-        <v>13.95132157520083</v>
+        <v>10.64964993200592</v>
       </c>
       <c r="E15">
-        <v>14.37492701750543</v>
+        <v>9.149498024952866</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>39.9554567525167</v>
+        <v>27.92620383310763</v>
       </c>
       <c r="H15">
-        <v>17.15431357003245</v>
+        <v>10.16546319927534</v>
       </c>
       <c r="I15">
-        <v>27.26842317243842</v>
+        <v>16.44320144035397</v>
       </c>
       <c r="J15">
-        <v>8.607147969716905</v>
+        <v>4.891052043354684</v>
       </c>
       <c r="K15">
-        <v>11.0618484610766</v>
+        <v>14.07863398096756</v>
       </c>
       <c r="L15">
-        <v>12.10157550882554</v>
+        <v>8.314792254506957</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.59347806806434</v>
+        <v>17.27088871552863</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.20519226212214</v>
+        <v>17.04521566893313</v>
       </c>
       <c r="C16">
-        <v>8.053349711177466</v>
+        <v>7.305815475317694</v>
       </c>
       <c r="D16">
-        <v>13.93567520120025</v>
+        <v>10.46750686420828</v>
       </c>
       <c r="E16">
-        <v>14.38405944002812</v>
+        <v>9.092385290927938</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>40.01984356751102</v>
+        <v>27.78678678360983</v>
       </c>
       <c r="H16">
-        <v>17.18533998507696</v>
+        <v>10.21019124859219</v>
       </c>
       <c r="I16">
-        <v>27.32915644842804</v>
+        <v>16.54446622291506</v>
       </c>
       <c r="J16">
-        <v>8.614275263693587</v>
+        <v>4.910427756756754</v>
       </c>
       <c r="K16">
-        <v>10.93096654239651</v>
+        <v>13.67116200429066</v>
       </c>
       <c r="L16">
-        <v>12.09373841030902</v>
+        <v>8.196814637207318</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.64522036380598</v>
+        <v>17.29388094298675</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.09489504132886</v>
+        <v>16.68951035650423</v>
       </c>
       <c r="C17">
-        <v>8.039616895126809</v>
+        <v>7.261618733599211</v>
       </c>
       <c r="D17">
-        <v>13.92671740882872</v>
+        <v>10.35586688363987</v>
       </c>
       <c r="E17">
-        <v>14.39018133209605</v>
+        <v>9.058481262982369</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>40.06195474603233</v>
+        <v>27.71029564704302</v>
       </c>
       <c r="H17">
-        <v>17.20500701704411</v>
+        <v>10.23945212716698</v>
       </c>
       <c r="I17">
-        <v>27.36760115029138</v>
+        <v>16.61023101722441</v>
       </c>
       <c r="J17">
-        <v>8.61875076676545</v>
+        <v>4.922471644859554</v>
       </c>
       <c r="K17">
-        <v>10.85013860365575</v>
+        <v>13.41535666458403</v>
       </c>
       <c r="L17">
-        <v>12.08933343395327</v>
+        <v>8.1245556451228</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.67827109320505</v>
+        <v>17.31231420413432</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.03120660294727</v>
+        <v>16.48167287808886</v>
       </c>
       <c r="C18">
-        <v>8.031704484770467</v>
+        <v>7.236123953885805</v>
       </c>
       <c r="D18">
-        <v>13.92180180187692</v>
+        <v>10.29170934903036</v>
       </c>
       <c r="E18">
-        <v>14.39389357796045</v>
+        <v>9.039395609971741</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>40.08713419454884</v>
+        <v>27.66955072692156</v>
       </c>
       <c r="H18">
-        <v>17.21655180787624</v>
+        <v>10.25693431259244</v>
       </c>
       <c r="I18">
-        <v>27.39014966799525</v>
+        <v>16.64935529018069</v>
       </c>
       <c r="J18">
-        <v>8.621362944478291</v>
+        <v>4.929457645633643</v>
       </c>
       <c r="K18">
-        <v>10.8034664744219</v>
+        <v>13.26607923313355</v>
       </c>
       <c r="L18">
-        <v>12.0869484991947</v>
+        <v>8.08304778600184</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.69776159340999</v>
+        <v>17.32446276265178</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.00960219061555</v>
+        <v>16.41074380210702</v>
       </c>
       <c r="C19">
-        <v>8.029023212220556</v>
+        <v>7.227479483894585</v>
       </c>
       <c r="D19">
-        <v>13.92017822211798</v>
+        <v>10.26999793729881</v>
       </c>
       <c r="E19">
-        <v>14.39518331980616</v>
+        <v>9.033004692228626</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40.09582393481118</v>
+        <v>27.65630672320815</v>
       </c>
       <c r="H19">
-        <v>17.22050067356072</v>
+        <v>10.26296387258142</v>
       </c>
       <c r="I19">
-        <v>27.39785911638367</v>
+        <v>16.66282132287239</v>
       </c>
       <c r="J19">
-        <v>8.622253915164228</v>
+        <v>4.931833136547147</v>
       </c>
       <c r="K19">
-        <v>10.78763427570941</v>
+        <v>13.21516806018595</v>
       </c>
       <c r="L19">
-        <v>12.08616659953189</v>
+        <v>8.069004195113157</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.7044432580554</v>
+        <v>17.32883745490357</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.1066625640199</v>
+        <v>16.72771129877584</v>
       </c>
       <c r="C20">
-        <v>8.041080209250199</v>
+        <v>7.266331287204957</v>
       </c>
       <c r="D20">
-        <v>13.92764651232848</v>
+        <v>10.36774590234584</v>
       </c>
       <c r="E20">
-        <v>14.38950987298091</v>
+        <v>9.062047419002429</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>40.05737272943546</v>
+        <v>27.71810021116911</v>
       </c>
       <c r="H20">
-        <v>17.20288933242441</v>
+        <v>10.23626938221058</v>
       </c>
       <c r="I20">
-        <v>27.36346350703174</v>
+        <v>16.60309500207444</v>
       </c>
       <c r="J20">
-        <v>8.618270412226972</v>
+        <v>4.921183497357971</v>
       </c>
       <c r="K20">
-        <v>10.85876205826234</v>
+        <v>13.44280957046447</v>
       </c>
       <c r="L20">
-        <v>12.08978697669293</v>
+        <v>8.132242438818702</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.67470304058708</v>
+        <v>17.31019092908399</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.42965528018552</v>
+        <v>17.75401866393659</v>
       </c>
       <c r="C21">
-        <v>8.081421003043758</v>
+        <v>7.395960473600144</v>
       </c>
       <c r="D21">
-        <v>13.9555582417715</v>
+        <v>10.69669172494586</v>
       </c>
       <c r="E21">
-        <v>14.37272962831208</v>
+        <v>9.164594556189144</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>39.93964218310419</v>
+        <v>27.96504833885646</v>
       </c>
       <c r="H21">
-        <v>17.14649889038547</v>
+        <v>10.1544929981364</v>
       </c>
       <c r="I21">
-        <v>27.25310995393628</v>
+        <v>16.41821674551493</v>
       </c>
       <c r="J21">
-        <v>8.605339661214755</v>
+        <v>4.886097658882284</v>
       </c>
       <c r="K21">
-        <v>11.09546187331588</v>
+        <v>14.18203277512172</v>
       </c>
       <c r="L21">
-        <v>12.10372288743728</v>
+        <v>8.34527919788313</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.58052398696243</v>
+        <v>17.26632727196946</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.63809358040222</v>
+        <v>18.39621605571121</v>
       </c>
       <c r="C22">
-        <v>8.107646591240774</v>
+        <v>7.479952219442398</v>
       </c>
       <c r="D22">
-        <v>13.97588141723535</v>
+        <v>10.91178502947617</v>
       </c>
       <c r="E22">
-        <v>14.36346004964262</v>
+        <v>9.235335622551775</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>39.87126593062469</v>
+        <v>28.15685227804458</v>
       </c>
       <c r="H22">
-        <v>17.11171601052914</v>
+        <v>10.10723162340814</v>
       </c>
       <c r="I22">
-        <v>27.18487149065538</v>
+        <v>16.30982804973192</v>
       </c>
       <c r="J22">
-        <v>8.597225167874081</v>
+        <v>4.863672519485299</v>
       </c>
       <c r="K22">
-        <v>11.24822515854089</v>
+        <v>14.64608973536382</v>
       </c>
       <c r="L22">
-        <v>12.11414071857645</v>
+        <v>8.48476476152271</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.52325801700755</v>
+        <v>17.25238056267405</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.52710996462469</v>
+        <v>18.05605900152269</v>
       </c>
       <c r="C23">
-        <v>8.093663125877388</v>
+        <v>7.435194074746601</v>
       </c>
       <c r="D23">
-        <v>13.96484545908118</v>
+        <v>10.79699311765786</v>
       </c>
       <c r="E23">
-        <v>14.3682523215307</v>
+        <v>9.197238300669595</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>39.90697408794302</v>
+        <v>28.05163222190669</v>
       </c>
       <c r="H23">
-        <v>17.13009082923935</v>
+        <v>10.13187106773167</v>
       </c>
       <c r="I23">
-        <v>27.22093624568007</v>
+        <v>16.36649435399002</v>
       </c>
       <c r="J23">
-        <v>8.601525321007303</v>
+        <v>4.875595831673258</v>
       </c>
       <c r="K23">
-        <v>11.16688412222233</v>
+        <v>14.40015575080566</v>
       </c>
       <c r="L23">
-        <v>12.10846138027381</v>
+        <v>8.410305793705323</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.55342954116279</v>
+        <v>17.25843047547995</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.10134332507075</v>
+        <v>16.71045105292811</v>
       </c>
       <c r="C24">
-        <v>8.040418698415374</v>
+        <v>7.264201007185305</v>
       </c>
       <c r="D24">
-        <v>13.92722573439629</v>
+        <v>10.36237531333681</v>
       </c>
       <c r="E24">
-        <v>14.38981283940086</v>
+        <v>9.060433894860131</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>40.059441240625</v>
+        <v>27.71456172089048</v>
       </c>
       <c r="H24">
-        <v>17.20384599640828</v>
+        <v>10.23770625042663</v>
       </c>
       <c r="I24">
-        <v>27.36533274582524</v>
+        <v>16.60631710743304</v>
       </c>
       <c r="J24">
-        <v>8.618487458541804</v>
+        <v>4.921765676136243</v>
       </c>
       <c r="K24">
-        <v>10.85486402341288</v>
+        <v>13.43040500034792</v>
       </c>
       <c r="L24">
-        <v>12.08958147028397</v>
+        <v>8.128767128451448</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.67631463342031</v>
+        <v>17.31114604108529</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.63288399592555</v>
+        <v>15.13472764374299</v>
       </c>
       <c r="C25">
-        <v>7.982474060333971</v>
+        <v>7.076978028815241</v>
       </c>
       <c r="D25">
-        <v>13.8957076326131</v>
+        <v>9.895937415341933</v>
       </c>
       <c r="E25">
-        <v>14.42037730384554</v>
+        <v>8.928711994697625</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>40.26051226097213</v>
+        <v>27.47427310290027</v>
       </c>
       <c r="H25">
-        <v>17.2923059103961</v>
+        <v>10.37660716965496</v>
       </c>
       <c r="I25">
-        <v>27.53776279174367</v>
+        <v>16.91419992208087</v>
       </c>
       <c r="J25">
-        <v>8.638237290889466</v>
+        <v>4.973819849620231</v>
       </c>
       <c r="K25">
-        <v>10.5115467219701</v>
+        <v>12.30241190679397</v>
       </c>
       <c r="L25">
-        <v>12.07490815872328</v>
+        <v>7.827284703201075</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.82723672592185</v>
+        <v>17.4265946396584</v>
       </c>
     </row>
   </sheetData>
